--- a/SaveEarth/Assets/StaticData/Economy/CostProgression.xlsx
+++ b/SaveEarth/Assets/StaticData/Economy/CostProgression.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB177AB-866E-4287-AB05-67F7224BB205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78888ED4-0D18-4ADC-B486-BAF8005CC141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="1620" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3435" yWindow="1740" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>DataID</t>
   </si>
@@ -59,6 +59,24 @@
   </si>
   <si>
     <t>metal_3</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>building_towncenter</t>
+  </si>
+  <si>
+    <t>building_farm</t>
+  </si>
+  <si>
+    <t>building_factory</t>
+  </si>
+  <si>
+    <t>building_filterationplant</t>
+  </si>
+  <si>
+    <t>building_house</t>
   </si>
 </sst>
 </file>
@@ -376,257 +394,275 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
         <v>500</v>
-      </c>
-      <c r="C2">
-        <v>200</v>
       </c>
       <c r="D2">
         <v>200</v>
       </c>
       <c r="E2">
+        <v>200</v>
+      </c>
+      <c r="F2">
         <v>300</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1500</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1800</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>800</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>700</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>3500</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>3800</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>2800</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1800</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
         <v>200</v>
       </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
       <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
         <v>50</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>20</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>500</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>250</v>
       </c>
-      <c r="H3">
-        <v>100</v>
-      </c>
       <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="J3">
         <v>75</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>500</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>200</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
         <v>300</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>200</v>
       </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
       <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
         <v>150</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>600</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>700</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>500</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>400</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1500</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1200</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>800</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
         <v>400</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>300</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>200</v>
       </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
       <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
         <v>1000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>800</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>700</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>350</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>2500</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1600</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1200</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>750</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
         <v>150</v>
       </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
       <c r="D6">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E6">
         <v>50</v>
       </c>
       <c r="F6">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>250</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I6">
         <v>100</v>
       </c>
       <c r="J6">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K6">
         <v>400</v>
       </c>
       <c r="L6">
+        <v>400</v>
+      </c>
+      <c r="M6">
         <v>300</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>250</v>
       </c>
     </row>
